--- a/backend-python/general_document/标准采购订单.xlsx
+++ b/backend-python/general_document/标准采购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="085" sheetId="1" r:id="rId1"/>
@@ -778,21 +778,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1162,7 +1165,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I3" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1174,22 +1177,23 @@
     <col min="5" max="6" width="8.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="5"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1202,8 +1206,9 @@
         <v>2</v>
       </c>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1228,6 +1233,7 @@
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="12"/>
@@ -1238,8 +1244,8 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6"/>
-      <c r="J6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="12"/>
@@ -1250,8 +1256,8 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="12"/>
@@ -1262,8 +1268,8 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8"/>
-      <c r="J8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="12"/>
@@ -1274,8 +1280,8 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="12"/>
@@ -1286,8 +1292,8 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="12"/>
@@ -1298,8 +1304,8 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="12"/>
@@ -1310,8 +1316,8 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="12"/>
@@ -1322,8 +1328,8 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="12"/>
@@ -1334,8 +1340,8 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A15" s="12"/>
@@ -1346,8 +1352,8 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
@@ -1358,8 +1364,8 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16"/>
-      <c r="J16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="12"/>
@@ -1370,8 +1376,8 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="12"/>
@@ -1382,8 +1388,8 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
@@ -1394,8 +1400,8 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
@@ -1406,8 +1412,8 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20"/>
-      <c r="J20"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
@@ -1418,8 +1424,8 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="12"/>
@@ -1430,8 +1436,8 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="12"/>
@@ -1442,8 +1448,8 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="12"/>
@@ -1454,8 +1460,8 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="12"/>
@@ -1466,8 +1472,8 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="12"/>
@@ -1478,8 +1484,8 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="12"/>
@@ -1490,8 +1496,8 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="12"/>
@@ -1502,8 +1508,8 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28"/>
-      <c r="J28"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A29" s="12"/>
@@ -1514,8 +1520,8 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A30" s="12"/>
@@ -1526,8 +1532,8 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A31" s="12"/>
@@ -1538,8 +1544,8 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" customHeight="1" spans="1:10">
       <c r="A32" s="12"/>
@@ -1550,8 +1556,8 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32"/>
-      <c r="J32"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" customHeight="1" spans="1:10">
       <c r="A33" s="12"/>
@@ -1562,8 +1568,8 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A34" s="12"/>
@@ -1574,8 +1580,8 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34"/>
-      <c r="J34"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="12"/>
@@ -1586,8 +1592,8 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="I35"/>
-      <c r="J35"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="12"/>
@@ -1598,8 +1604,8 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36"/>
-      <c r="J36"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="12"/>
@@ -1610,8 +1616,8 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37"/>
-      <c r="J37"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="12"/>
@@ -1622,8 +1628,8 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="12"/>
@@ -1634,8 +1640,8 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39"/>
-      <c r="J39"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="12"/>
@@ -1646,8 +1652,8 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40"/>
-      <c r="J40"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="12"/>
@@ -1658,8 +1664,8 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41"/>
-      <c r="J41"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="12"/>
@@ -1670,8 +1676,8 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42"/>
-      <c r="J42"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A43" s="12"/>
@@ -1682,8 +1688,8 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43"/>
-      <c r="J43"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A44" s="12"/>
@@ -1694,8 +1700,8 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44"/>
-      <c r="J44"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A45" s="12"/>
@@ -1706,8 +1712,8 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45"/>
-      <c r="J45"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="12"/>
@@ -1718,8 +1724,8 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="12"/>
@@ -1730,8 +1736,8 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47"/>
-      <c r="J47"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A48" s="12"/>
@@ -1742,8 +1748,8 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48"/>
-      <c r="J48"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="12"/>
@@ -1754,8 +1760,8 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="I49"/>
-      <c r="J49"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" customHeight="1" spans="1:10">
       <c r="A50" s="12"/>
@@ -1766,8 +1772,8 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50"/>
-      <c r="J50"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="12"/>
@@ -1778,8 +1784,8 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51"/>
-      <c r="J51"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" customHeight="1" spans="1:10">
       <c r="A52" s="12"/>
@@ -1790,8 +1796,8 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52"/>
-      <c r="J52"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" customHeight="1" spans="1:10">
       <c r="A53" s="12"/>
@@ -1802,8 +1808,8 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53"/>
-      <c r="J53"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" customHeight="1" spans="1:10">
       <c r="A54" s="12"/>
@@ -1814,8 +1820,8 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54"/>
-      <c r="J54"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" customHeight="1" spans="1:10">
       <c r="A55" s="12"/>
@@ -1826,8 +1832,8 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55"/>
-      <c r="J55"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" customHeight="1" spans="1:10">
       <c r="A56" s="12"/>
@@ -1838,8 +1844,8 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56"/>
-      <c r="J56"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A57" s="12"/>
@@ -1850,8 +1856,8 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57"/>
-      <c r="J57"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A58" s="12"/>
@@ -1862,8 +1868,8 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58"/>
-      <c r="J58"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A59" s="12"/>
@@ -1874,12 +1880,12 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59"/>
-      <c r="J59"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
   </mergeCells>
